--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:48:54+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-21T15:30:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,11 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}gateway-140-report-1:All condition resources shall conform to either klgateway-140-condition profile, or klgateway-140--focus-condition profile {entry.select(resource as Condition).all(
+    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition')
+ or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition'))}gateway-140-report-2:All intervention resources shall conform to either klgateway-140-care-plan profile, or klgateway-140-planned-intervention profile {entry.select(resource as CarePlan).all(
+    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan')
+ or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention'))}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -744,20 +748,14 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t>Condition {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition}
-CarePlan {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention}Encounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
+    <t>Condition
+CarePlanEncounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
   </si>
   <si>
     <t>Citizen and content constrained to known profiles</t>
   </si>
   <si>
-    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>PPR message</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
+    <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
     <t>Bundle.entry.search</t>
@@ -1460,7 +1458,7 @@
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="74.56640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4977,10 +4975,10 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4991,10 +4989,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5020,10 +5018,10 @@
         <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5074,7 +5072,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5083,7 +5081,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>96</v>
@@ -5103,10 +5101,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5215,10 +5213,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5329,10 +5327,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5445,10 +5443,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5474,13 +5472,13 @@
         <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5509,10 +5507,10 @@
         <v>180</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5530,7 +5528,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5559,10 +5557,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5585,16 +5583,16 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5644,7 +5642,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5673,10 +5671,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5702,10 +5700,10 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5756,7 +5754,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5765,7 +5763,7 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>96</v>
@@ -5785,10 +5783,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5897,10 +5895,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6011,10 +6009,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6127,10 +6125,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6156,10 +6154,10 @@
         <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6189,10 +6187,10 @@
         <v>180</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6210,7 +6208,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -6239,10 +6237,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6268,13 +6266,13 @@
         <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6324,7 +6322,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6353,10 +6351,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6382,10 +6380,10 @@
         <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6436,7 +6434,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6465,10 +6463,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6494,10 +6492,10 @@
         <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6548,7 +6546,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6577,10 +6575,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6606,10 +6604,10 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6660,7 +6658,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6689,10 +6687,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6718,10 +6716,10 @@
         <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6772,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6801,10 +6799,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6830,10 +6828,10 @@
         <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6884,7 +6882,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6893,7 +6891,7 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -6913,10 +6911,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7025,10 +7023,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7139,10 +7137,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7255,10 +7253,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7284,10 +7282,10 @@
         <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7338,7 +7336,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -7367,10 +7365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7396,10 +7394,10 @@
         <v>126</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7450,7 +7448,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7479,10 +7477,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7508,13 +7506,13 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7564,7 +7562,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7593,10 +7591,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7622,13 +7620,13 @@
         <v>120</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7678,7 +7676,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7707,10 +7705,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7733,16 +7731,16 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7792,7 +7790,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7821,13 +7819,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7852,7 +7850,7 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>217</v>
@@ -7935,7 +7933,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>220</v>
@@ -8047,7 +8045,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>221</v>
@@ -8161,7 +8159,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>222</v>
@@ -8277,7 +8275,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>223</v>
@@ -8389,7 +8387,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>226</v>
@@ -8503,14 +8501,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>230</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8529,13 +8527,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8604,10 +8602,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8615,10 +8613,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8644,10 +8642,10 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8698,7 +8696,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8707,7 +8705,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8727,10 +8725,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8839,10 +8837,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8953,10 +8951,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9069,10 +9067,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9098,13 +9096,13 @@
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9133,10 +9131,10 @@
         <v>180</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9154,7 +9152,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9183,10 +9181,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9209,16 +9207,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9268,7 +9266,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9297,10 +9295,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9326,10 +9324,10 @@
         <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9380,7 +9378,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9389,7 +9387,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>96</v>
@@ -9409,10 +9407,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9521,10 +9519,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9635,10 +9633,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9751,10 +9749,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9780,10 +9778,10 @@
         <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9813,10 +9811,10 @@
         <v>180</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -9834,7 +9832,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -9863,10 +9861,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9892,13 +9890,13 @@
         <v>126</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9948,7 +9946,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -9977,10 +9975,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10006,10 +10004,10 @@
         <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10060,7 +10058,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10089,10 +10087,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10118,10 +10116,10 @@
         <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10172,7 +10170,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10201,10 +10199,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10230,10 +10228,10 @@
         <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10284,7 +10282,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10313,10 +10311,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10342,10 +10340,10 @@
         <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10396,7 +10394,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10425,10 +10423,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10454,10 +10452,10 @@
         <v>197</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10508,7 +10506,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10517,7 +10515,7 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>96</v>
@@ -10537,10 +10535,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10649,10 +10647,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10763,10 +10761,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10879,10 +10877,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10908,10 +10906,10 @@
         <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10962,7 +10960,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>84</v>
@@ -10991,10 +10989,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11020,10 +11018,10 @@
         <v>126</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11074,7 +11072,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11103,10 +11101,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11132,13 +11130,13 @@
         <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11188,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11217,10 +11215,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11246,13 +11244,13 @@
         <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11302,7 +11300,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11331,10 +11329,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11357,16 +11355,16 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11416,7 +11414,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11445,10 +11443,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11471,19 +11469,19 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -11532,7 +11530,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>

--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:30:32+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,11 +257,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}gateway-140-report-1:All condition resources shall conform to either klgateway-140-condition profile, or klgateway-140--focus-condition profile {entry.select(resource as Condition).all(
-    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition')
- or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition'))}gateway-140-report-2:All intervention resources shall conform to either klgateway-140-care-plan profile, or klgateway-140-planned-intervention profile {entry.select(resource as CarePlan).all(
-    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan')
- or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention'))}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -748,14 +744,20 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t>Condition
-CarePlanEncounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
+    <t>Condition {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition}
+CarePlan {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention}Encounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
   </si>
   <si>
     <t>Citizen and content constrained to known profiles</t>
   </si>
   <si>
-    <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>PPR message</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
   </si>
   <si>
     <t>Bundle.entry.search</t>
@@ -1458,7 +1460,7 @@
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="74.56640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4975,10 +4977,10 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4989,10 +4991,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5018,10 +5020,10 @@
         <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5072,7 +5074,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5081,7 +5083,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>96</v>
@@ -5101,10 +5103,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5213,10 +5215,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5327,10 +5329,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5443,10 +5445,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5472,13 +5474,13 @@
         <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5507,10 +5509,10 @@
         <v>180</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5528,7 +5530,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5557,10 +5559,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5583,16 +5585,16 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5642,7 +5644,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5671,10 +5673,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5700,10 +5702,10 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5754,7 +5756,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5763,7 +5765,7 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>96</v>
@@ -5783,10 +5785,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5895,10 +5897,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6009,10 +6011,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6125,10 +6127,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6154,10 +6156,10 @@
         <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6187,10 +6189,10 @@
         <v>180</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6208,7 +6210,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -6237,10 +6239,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6266,13 +6268,13 @@
         <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6322,7 +6324,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6351,10 +6353,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,10 +6382,10 @@
         <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6434,7 +6436,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6465,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6492,10 +6494,10 @@
         <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6546,7 +6548,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6575,10 +6577,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6604,10 +6606,10 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6658,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6687,10 +6689,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6716,10 +6718,10 @@
         <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6770,7 +6772,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6799,10 +6801,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6828,10 +6830,10 @@
         <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6882,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6891,7 +6893,7 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -6911,10 +6913,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7023,10 +7025,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7137,10 +7139,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7253,10 +7255,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7282,10 +7284,10 @@
         <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7336,7 +7338,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -7365,10 +7367,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7394,10 +7396,10 @@
         <v>126</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7448,7 +7450,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7477,10 +7479,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7506,13 +7508,13 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7562,7 +7564,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7591,10 +7593,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7620,13 +7622,13 @@
         <v>120</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7676,7 +7678,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7705,10 +7707,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7731,16 +7733,16 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7790,7 +7792,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7819,13 +7821,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7850,7 +7852,7 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>217</v>
@@ -7933,7 +7935,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>220</v>
@@ -8045,7 +8047,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>221</v>
@@ -8159,7 +8161,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>222</v>
@@ -8275,7 +8277,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>223</v>
@@ -8387,7 +8389,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>226</v>
@@ -8501,14 +8503,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>230</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8527,13 +8529,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8602,10 +8604,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8613,10 +8615,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8642,10 +8644,10 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8696,7 +8698,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8705,7 +8707,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8725,10 +8727,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8837,10 +8839,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8951,10 +8953,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9067,10 +9069,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9096,13 +9098,13 @@
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9131,10 +9133,10 @@
         <v>180</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9152,7 +9154,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9181,10 +9183,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9207,16 +9209,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9266,7 +9268,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9295,10 +9297,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9324,10 +9326,10 @@
         <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9378,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9387,7 +9389,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>96</v>
@@ -9407,10 +9409,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9519,10 +9521,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9633,10 +9635,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9749,10 +9751,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9778,10 +9780,10 @@
         <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9811,10 +9813,10 @@
         <v>180</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -9832,7 +9834,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -9861,10 +9863,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9890,13 +9892,13 @@
         <v>126</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9946,7 +9948,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -9975,10 +9977,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10004,10 +10006,10 @@
         <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10058,7 +10060,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10087,10 +10089,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10116,10 +10118,10 @@
         <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10170,7 +10172,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10199,10 +10201,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10228,10 +10230,10 @@
         <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10282,7 +10284,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10311,10 +10313,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10340,10 +10342,10 @@
         <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10394,7 +10396,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10423,10 +10425,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10452,10 +10454,10 @@
         <v>197</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10506,7 +10508,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10515,7 +10517,7 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>96</v>
@@ -10535,10 +10537,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10647,10 +10649,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10761,10 +10763,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10877,10 +10879,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10906,10 +10908,10 @@
         <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10960,7 +10962,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>84</v>
@@ -10989,10 +10991,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11018,10 +11020,10 @@
         <v>126</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11072,7 +11074,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11101,10 +11103,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11130,13 +11132,13 @@
         <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11186,7 +11188,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11215,10 +11217,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11244,13 +11246,13 @@
         <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11300,7 +11302,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11329,10 +11331,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11355,16 +11357,16 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11414,7 +11416,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11443,10 +11445,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11469,19 +11471,19 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -11530,7 +11532,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>

--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-24T12:49:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,11 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}gateway-140-report-1:All condition resources shall conform to either klgateway-140-condition profile, or klgateway-140--focus-condition profile {entry.select(resource as Condition).all(
+    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition')
+ or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition'))}gateway-140-report-2:All intervention resources shall conform to either klgateway-140-care-plan profile, or klgateway-140-planned-intervention profile {entry.select(resource as CarePlan).all(
+    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan')
+ or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention'))}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -744,20 +748,14 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t>Condition {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition}
-CarePlan {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention}Encounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
+    <t>Condition
+CarePlanEncounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
   </si>
   <si>
     <t>Citizen and content constrained to known profiles</t>
   </si>
   <si>
-    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
-  </si>
-  <si>
-    <t>PPR message</t>
-  </si>
-  <si>
-    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
+    <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
   </si>
   <si>
     <t>Bundle.entry.search</t>
@@ -1460,7 +1458,7 @@
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="74.56640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4977,10 +4975,10 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4991,10 +4989,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5020,10 +5018,10 @@
         <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5074,7 +5072,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5083,7 +5081,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>96</v>
@@ -5103,10 +5101,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5215,10 +5213,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5329,10 +5327,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5445,10 +5443,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5474,13 +5472,13 @@
         <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5509,10 +5507,10 @@
         <v>180</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5530,7 +5528,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5559,10 +5557,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5585,16 +5583,16 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5644,7 +5642,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5673,10 +5671,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5702,10 +5700,10 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5756,7 +5754,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5765,7 +5763,7 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>96</v>
@@ -5785,10 +5783,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5897,10 +5895,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6011,10 +6009,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6127,10 +6125,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6156,10 +6154,10 @@
         <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6189,10 +6187,10 @@
         <v>180</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6210,7 +6208,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -6239,10 +6237,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6268,13 +6266,13 @@
         <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6324,7 +6322,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6353,10 +6351,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6382,10 +6380,10 @@
         <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6436,7 +6434,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6465,10 +6463,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6494,10 +6492,10 @@
         <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6548,7 +6546,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6577,10 +6575,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6606,10 +6604,10 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6660,7 +6658,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6689,10 +6687,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6718,10 +6716,10 @@
         <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6772,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6801,10 +6799,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6830,10 +6828,10 @@
         <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6884,7 +6882,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6893,7 +6891,7 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -6913,10 +6911,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7025,10 +7023,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7139,10 +7137,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7255,10 +7253,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7284,10 +7282,10 @@
         <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7338,7 +7336,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -7367,10 +7365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7396,10 +7394,10 @@
         <v>126</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7450,7 +7448,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7479,10 +7477,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7508,13 +7506,13 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7564,7 +7562,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7593,10 +7591,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7622,13 +7620,13 @@
         <v>120</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7678,7 +7676,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7707,10 +7705,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7733,16 +7731,16 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7792,7 +7790,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7821,13 +7819,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7852,7 +7850,7 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>217</v>
@@ -7935,7 +7933,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>220</v>
@@ -8047,7 +8045,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>221</v>
@@ -8161,7 +8159,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>222</v>
@@ -8277,7 +8275,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>223</v>
@@ -8389,7 +8387,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>226</v>
@@ -8503,14 +8501,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>230</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8529,13 +8527,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8604,10 +8602,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8615,10 +8613,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8644,10 +8642,10 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8698,7 +8696,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8707,7 +8705,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8727,10 +8725,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8839,10 +8837,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8953,10 +8951,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9069,10 +9067,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9098,13 +9096,13 @@
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9133,10 +9131,10 @@
         <v>180</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9154,7 +9152,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9183,10 +9181,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9209,16 +9207,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9268,7 +9266,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9297,10 +9295,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9326,10 +9324,10 @@
         <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9380,7 +9378,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9389,7 +9387,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>96</v>
@@ -9409,10 +9407,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9521,10 +9519,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9635,10 +9633,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9751,10 +9749,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9780,10 +9778,10 @@
         <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9813,10 +9811,10 @@
         <v>180</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -9834,7 +9832,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -9863,10 +9861,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9892,13 +9890,13 @@
         <v>126</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9948,7 +9946,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -9977,10 +9975,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10006,10 +10004,10 @@
         <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10060,7 +10058,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10089,10 +10087,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10118,10 +10116,10 @@
         <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10172,7 +10170,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10201,10 +10199,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10230,10 +10228,10 @@
         <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10284,7 +10282,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10313,10 +10311,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10342,10 +10340,10 @@
         <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10396,7 +10394,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10425,10 +10423,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10454,10 +10452,10 @@
         <v>197</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10508,7 +10506,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10517,7 +10515,7 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>96</v>
@@ -10537,10 +10535,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10649,10 +10647,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10763,10 +10761,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10879,10 +10877,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10908,10 +10906,10 @@
         <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10962,7 +10960,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>84</v>
@@ -10991,10 +10989,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11020,10 +11018,10 @@
         <v>126</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11074,7 +11072,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11103,10 +11101,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11132,13 +11130,13 @@
         <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11188,7 +11186,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11217,10 +11215,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11246,13 +11244,13 @@
         <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11302,7 +11300,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11331,10 +11329,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11357,16 +11355,16 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11416,7 +11414,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11445,10 +11443,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11471,19 +11469,19 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -11532,7 +11530,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>

--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T12:49:29+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,11 +257,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}gateway-140-report-1:All condition resources shall conform to either klgateway-140-condition profile, or klgateway-140--focus-condition profile {entry.select(resource as Condition).all(
-    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition')
- or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition'))}gateway-140-report-2:All intervention resources shall conform to either klgateway-140-care-plan profile, or klgateway-140-planned-intervention profile {entry.select(resource as CarePlan).all(
-    $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan')
- or $this.conformsTo('http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention'))}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -748,14 +744,20 @@
     <t>Bundle.entry.resource</t>
   </si>
   <si>
-    <t>Condition
-CarePlanEncounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
+    <t>Condition {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-condition|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-focus-condition}
+CarePlan {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-care-plan|http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-planned-intervention}Encounter {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-encounter}Organization {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-organization}Patient {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-citizen}ServiceRequest {http://fhir.kl.dk/rehab/StructureDefinition/klgateway-140-servicerequest}</t>
   </si>
   <si>
     <t>Citizen and content constrained to known profiles</t>
   </si>
   <si>
-    <t>The Resource for the entry. The purpose/meaning of the resource is determined by the Bundle.type.</t>
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>PPR message</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
   </si>
   <si>
     <t>Bundle.entry.search</t>
@@ -1458,7 +1460,7 @@
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="74.56640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -4975,10 +4977,10 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>74</v>
@@ -4989,10 +4991,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5018,10 +5020,10 @@
         <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5072,7 +5074,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5081,7 +5083,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>96</v>
@@ -5101,10 +5103,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5213,10 +5215,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5327,10 +5329,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5443,10 +5445,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5472,13 +5474,13 @@
         <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5507,10 +5509,10 @@
         <v>180</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5528,7 +5530,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -5557,10 +5559,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5583,16 +5585,16 @@
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5642,7 +5644,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5671,10 +5673,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5700,10 +5702,10 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5754,7 +5756,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5763,7 +5765,7 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>96</v>
@@ -5783,10 +5785,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5895,10 +5897,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6009,10 +6011,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6125,10 +6127,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6154,10 +6156,10 @@
         <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6187,10 +6189,10 @@
         <v>180</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -6208,7 +6210,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>84</v>
@@ -6237,10 +6239,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6266,13 +6268,13 @@
         <v>126</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6322,7 +6324,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6351,10 +6353,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6380,10 +6382,10 @@
         <v>98</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6434,7 +6436,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6463,10 +6465,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6492,10 +6494,10 @@
         <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6546,7 +6548,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6575,10 +6577,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6604,10 +6606,10 @@
         <v>98</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6658,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6687,10 +6689,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6716,10 +6718,10 @@
         <v>98</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6770,7 +6772,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6799,10 +6801,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6828,10 +6830,10 @@
         <v>197</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6882,7 +6884,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6891,7 +6893,7 @@
         <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>96</v>
@@ -6911,10 +6913,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7023,10 +7025,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7137,10 +7139,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7253,10 +7255,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7282,10 +7284,10 @@
         <v>98</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7336,7 +7338,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>84</v>
@@ -7365,10 +7367,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7394,10 +7396,10 @@
         <v>126</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7448,7 +7450,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7477,10 +7479,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7506,13 +7508,13 @@
         <v>98</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7562,7 +7564,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7591,10 +7593,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7620,13 +7622,13 @@
         <v>120</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7676,7 +7678,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7705,10 +7707,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7731,16 +7733,16 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7790,7 +7792,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7819,13 +7821,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
@@ -7850,7 +7852,7 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>217</v>
@@ -7933,7 +7935,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>220</v>
@@ -8045,7 +8047,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>221</v>
@@ -8159,7 +8161,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>222</v>
@@ -8275,7 +8277,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>223</v>
@@ -8387,7 +8389,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>226</v>
@@ -8501,14 +8503,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>230</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8527,13 +8529,13 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8602,10 +8604,10 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>74</v>
@@ -8613,10 +8615,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8642,10 +8644,10 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8696,7 +8698,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -8705,7 +8707,7 @@
         <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>96</v>
@@ -8725,10 +8727,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8837,10 +8839,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8951,10 +8953,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9067,10 +9069,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9096,13 +9098,13 @@
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9131,10 +9133,10 @@
         <v>180</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>74</v>
@@ -9152,7 +9154,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -9181,10 +9183,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9207,16 +9209,16 @@
         <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9266,7 +9268,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9295,10 +9297,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9324,10 +9326,10 @@
         <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9378,7 +9380,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9387,7 +9389,7 @@
         <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>96</v>
@@ -9407,10 +9409,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9519,10 +9521,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9633,10 +9635,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9749,10 +9751,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9778,10 +9780,10 @@
         <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9811,10 +9813,10 @@
         <v>180</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>74</v>
@@ -9832,7 +9834,7 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>84</v>
@@ -9861,10 +9863,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9890,13 +9892,13 @@
         <v>126</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -9946,7 +9948,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>84</v>
@@ -9975,10 +9977,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10004,10 +10006,10 @@
         <v>98</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10058,7 +10060,7 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10087,10 +10089,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10116,10 +10118,10 @@
         <v>120</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10170,7 +10172,7 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
@@ -10199,10 +10201,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10228,10 +10230,10 @@
         <v>98</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10282,7 +10284,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10311,10 +10313,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10340,10 +10342,10 @@
         <v>98</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10394,7 +10396,7 @@
         <v>74</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
@@ -10423,10 +10425,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10452,10 +10454,10 @@
         <v>197</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10506,7 +10508,7 @@
         <v>74</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
@@ -10515,7 +10517,7 @@
         <v>84</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>96</v>
@@ -10535,10 +10537,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10647,10 +10649,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10761,10 +10763,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10877,10 +10879,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10906,10 +10908,10 @@
         <v>98</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10960,7 +10962,7 @@
         <v>74</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>84</v>
@@ -10989,10 +10991,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11018,10 +11020,10 @@
         <v>126</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11072,7 +11074,7 @@
         <v>74</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11101,10 +11103,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11130,13 +11132,13 @@
         <v>98</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11186,7 +11188,7 @@
         <v>74</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11215,10 +11217,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11244,13 +11246,13 @@
         <v>120</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11300,7 +11302,7 @@
         <v>74</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11329,10 +11331,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11355,16 +11357,16 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11414,7 +11416,7 @@
         <v>74</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>75</v>
@@ -11443,10 +11445,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11469,19 +11471,19 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>74</v>
@@ -11530,7 +11532,7 @@
         <v>74</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>

--- a/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
+++ b/rehab/StructureDefinition-klgateway-140-delivery-report.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T23:09:09+02:00</t>
+    <t>2024-10-31T15:40:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -418,7 +418,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -438,7 +438,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -744,7 +744,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
